--- a/Resources/1995/Advanced_Percentile_1995.xlsx
+++ b/Resources/1995/Advanced_Percentile_1995.xlsx
@@ -1276,34 +1276,34 @@
     <t>humphja01</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Anfernee Hardaway</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1315,16 +1315,16 @@
     <t>Dana Barros</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Jeff Hornacek</t>
@@ -1372,7 +1372,7 @@
     <t>Tony Harris</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Danny Manning</t>
@@ -1423,16 +1423,16 @@
     <t>Danny Ferry</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Lester Conner</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Rick Fox</t>
@@ -1486,13 +1486,13 @@
     <t>Dee Brown</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Will Perdue</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Kevin Gamble</t>
@@ -1516,7 +1516,7 @@
     <t>Tyrone Hill</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Sam Cassell</t>
@@ -1609,7 +1609,7 @@
     <t>David Benoit</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Danny Ainge</t>
@@ -1723,7 +1723,7 @@
     <t>Scott Brooks</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Eric Piatkowski</t>
@@ -1819,7 +1819,7 @@
     <t>Eric Mobley</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Malik Sealy</t>
@@ -1942,7 +1942,7 @@
     <t>Bo Outlaw</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Ron Harper</t>
@@ -2083,7 +2083,7 @@
     <t>George Lynch</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Carl Herrera</t>
@@ -2362,7 +2362,7 @@
     <t>Ervin Johnson</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Alphonso Ford</t>
